--- a/Meterological_Data_Analysis/ymd_to_excel.xlsx
+++ b/Meterological_Data_Analysis/ymd_to_excel.xlsx
@@ -1,59 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20361"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f2f75407a6ecefc/Documents/GitHub/Playing-with-Data/Meterological_Data_Analysis/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{FA795EDF-CC5D-4A00-B5E5-2F555BCD2C74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Parker</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -81,23 +44,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -144,7 +98,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,27 +130,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,24 +164,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -421,43 +339,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C2:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="3:3">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3">
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
+      <c r="C14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Meterological_Data_Analysis/ymd_to_excel.xlsx
+++ b/Meterological_Data_Analysis/ymd_to_excel.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:C19"/>
+  <dimension ref="C2:C731"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -368,72 +368,3632 @@
     </row>
     <row r="6" spans="3:3">
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:3">
       <c r="C10">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
+      <c r="C26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
+      <c r="C27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3">
+      <c r="C28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3">
+      <c r="C32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34">
         <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3">
+      <c r="C44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3">
+      <c r="C45">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3">
+      <c r="C46">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3">
+      <c r="C48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3">
+      <c r="C50">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="3:3">
+      <c r="C51">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3">
+      <c r="C52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3">
+      <c r="C53">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3">
+      <c r="C54">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3">
+      <c r="C55">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3">
+      <c r="C56">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3">
+      <c r="C57">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3">
+      <c r="C58">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3">
+      <c r="C60">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3">
+      <c r="C62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3">
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3">
+      <c r="C64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3">
+      <c r="C65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3">
+      <c r="C66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3">
+      <c r="C67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
+      <c r="C68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3">
+      <c r="C69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3">
+      <c r="C70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3">
+      <c r="C71">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
+      <c r="C72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
+      <c r="C74">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3">
+      <c r="C75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3">
+      <c r="C76">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3">
+      <c r="C77">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="3:3">
+      <c r="C78">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3">
+      <c r="C79">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
+      <c r="C80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3">
+      <c r="C85">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3">
+      <c r="C86">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3">
+      <c r="C87">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3">
+      <c r="C90">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3">
+      <c r="C91">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3">
+      <c r="C94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3">
+      <c r="C98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3">
+      <c r="C99">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3">
+      <c r="C101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3">
+      <c r="C103">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3">
+      <c r="C109">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3">
+      <c r="C110">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3">
+      <c r="C111">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3">
+      <c r="C112">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="3:3">
+      <c r="C113">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114" spans="3:3">
+      <c r="C114">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115" spans="3:3">
+      <c r="C115">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="3:3">
+      <c r="C116">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="3:3">
+      <c r="C117">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="3:3">
+      <c r="C118">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="3:3">
+      <c r="C119">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="3:3">
+      <c r="C120">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="121" spans="3:3">
+      <c r="C121">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="3:3">
+      <c r="C122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="3:3">
+      <c r="C123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="3:3">
+      <c r="C124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="3:3">
+      <c r="C125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="3:3">
+      <c r="C126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="3:3">
+      <c r="C127">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="3:3">
+      <c r="C128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="3:3">
+      <c r="C131">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="3:3">
+      <c r="C132">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="3:3">
+      <c r="C133">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="3:3">
+      <c r="C134">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="3:3">
+      <c r="C135">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="3:3">
+      <c r="C136">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="3:3">
+      <c r="C137">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="3:3">
+      <c r="C138">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="3:3">
+      <c r="C139">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="3:3">
+      <c r="C140">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="141" spans="3:3">
+      <c r="C141">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="3:3">
+      <c r="C142">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" spans="3:3">
+      <c r="C143">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="3:3">
+      <c r="C144">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="3:3">
+      <c r="C145">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="3:3">
+      <c r="C146">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="3:3">
+      <c r="C147">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="148" spans="3:3">
+      <c r="C148">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="3:3">
+      <c r="C149">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="3:3">
+      <c r="C150">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151" spans="3:3">
+      <c r="C151">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="3:3">
+      <c r="C152">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="3:3">
+      <c r="C153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="3:3">
+      <c r="C154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="3:3">
+      <c r="C155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="3:3">
+      <c r="C156">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="3:3">
+      <c r="C157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="3:3">
+      <c r="C158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="3:3">
+      <c r="C159">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="3:3">
+      <c r="C160">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="3:3">
+      <c r="C161">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="3:3">
+      <c r="C162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="3:3">
+      <c r="C163">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" spans="3:3">
+      <c r="C164">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="3:3">
+      <c r="C165">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="3:3">
+      <c r="C166">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="3:3">
+      <c r="C167">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="3:3">
+      <c r="C168">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="3:3">
+      <c r="C169">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="3:3">
+      <c r="C170">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="3:3">
+      <c r="C171">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="3:3">
+      <c r="C172">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="3:3">
+      <c r="C173">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174" spans="3:3">
+      <c r="C174">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="3:3">
+      <c r="C175">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="3:3">
+      <c r="C176">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3">
+      <c r="C177">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3">
+      <c r="C178">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3">
+      <c r="C179">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3">
+      <c r="C180">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3">
+      <c r="C181">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3">
+      <c r="C182">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3">
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3">
+      <c r="C184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3">
+      <c r="C185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3">
+      <c r="C186">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3">
+      <c r="C187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="3:3">
+      <c r="C188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="3:3">
+      <c r="C189">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="3:3">
+      <c r="C190">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="3:3">
+      <c r="C191">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="3:3">
+      <c r="C192">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="3:3">
+      <c r="C193">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" spans="3:3">
+      <c r="C194">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="3:3">
+      <c r="C195">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3">
+      <c r="C196">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="3:3">
+      <c r="C197">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="198" spans="3:3">
+      <c r="C198">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="3:3">
+      <c r="C199">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="200" spans="3:3">
+      <c r="C200">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="3:3">
+      <c r="C201">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="202" spans="3:3">
+      <c r="C202">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203" spans="3:3">
+      <c r="C203">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="204" spans="3:3">
+      <c r="C204">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="3:3">
+      <c r="C205">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206" spans="3:3">
+      <c r="C206">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="3:3">
+      <c r="C207">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="3:3">
+      <c r="C208">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3">
+      <c r="C209">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3">
+      <c r="C210">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3">
+      <c r="C211">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3">
+      <c r="C212">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3">
+      <c r="C213">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3">
+      <c r="C214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3">
+      <c r="C215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3">
+      <c r="C216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3">
+      <c r="C217">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3">
+      <c r="C218">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3">
+      <c r="C219">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3">
+      <c r="C220">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3">
+      <c r="C221">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3">
+      <c r="C222">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3">
+      <c r="C223">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3">
+      <c r="C224">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3">
+      <c r="C226">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3">
+      <c r="C227">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3">
+      <c r="C228">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3">
+      <c r="C229">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3">
+      <c r="C230">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3">
+      <c r="C231">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3">
+      <c r="C232">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="233" spans="3:3">
+      <c r="C233">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" spans="3:3">
+      <c r="C234">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3">
+      <c r="C235">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3">
+      <c r="C236">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" spans="3:3">
+      <c r="C237">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="238" spans="3:3">
+      <c r="C238">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="239" spans="3:3">
+      <c r="C239">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="240" spans="3:3">
+      <c r="C240">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="241" spans="3:3">
+      <c r="C241">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="242" spans="3:3">
+      <c r="C242">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="243" spans="3:3">
+      <c r="C243">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="3:3">
+      <c r="C244">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="245" spans="3:3">
+      <c r="C245">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="3:3">
+      <c r="C246">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="3:3">
+      <c r="C247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="3:3">
+      <c r="C248">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="3:3">
+      <c r="C249">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3">
+      <c r="C250">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="251" spans="3:3">
+      <c r="C251">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="3:3">
+      <c r="C252">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="3:3">
+      <c r="C253">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="254" spans="3:3">
+      <c r="C254">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255" spans="3:3">
+      <c r="C255">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="256" spans="3:3">
+      <c r="C256">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="257" spans="3:3">
+      <c r="C257">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="3:3">
+      <c r="C258">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="3:3">
+      <c r="C259">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="3:3">
+      <c r="C260">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="3:3">
+      <c r="C261">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="262" spans="3:3">
+      <c r="C262">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="263" spans="3:3">
+      <c r="C263">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="264" spans="3:3">
+      <c r="C264">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="265" spans="3:3">
+      <c r="C265">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="266" spans="3:3">
+      <c r="C266">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="267" spans="3:3">
+      <c r="C267">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="268" spans="3:3">
+      <c r="C268">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="269" spans="3:3">
+      <c r="C269">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="270" spans="3:3">
+      <c r="C270">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="271" spans="3:3">
+      <c r="C271">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="272" spans="3:3">
+      <c r="C272">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="273" spans="3:3">
+      <c r="C273">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="274" spans="3:3">
+      <c r="C274">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="275" spans="3:3">
+      <c r="C275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="3:3">
+      <c r="C276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="3:3">
+      <c r="C277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="3:3">
+      <c r="C278">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="3:3">
+      <c r="C279">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="3:3">
+      <c r="C280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="3:3">
+      <c r="C281">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="3:3">
+      <c r="C282">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="3:3">
+      <c r="C283">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="284" spans="3:3">
+      <c r="C284">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="3:3">
+      <c r="C285">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="286" spans="3:3">
+      <c r="C286">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="287" spans="3:3">
+      <c r="C287">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="288" spans="3:3">
+      <c r="C288">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289" spans="3:3">
+      <c r="C289">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="290" spans="3:3">
+      <c r="C290">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="291" spans="3:3">
+      <c r="C291">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="292" spans="3:3">
+      <c r="C292">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="293" spans="3:3">
+      <c r="C293">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="294" spans="3:3">
+      <c r="C294">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="3:3">
+      <c r="C295">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="296" spans="3:3">
+      <c r="C296">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="297" spans="3:3">
+      <c r="C297">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="298" spans="3:3">
+      <c r="C298">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="299" spans="3:3">
+      <c r="C299">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="300" spans="3:3">
+      <c r="C300">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="301" spans="3:3">
+      <c r="C301">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="302" spans="3:3">
+      <c r="C302">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="303" spans="3:3">
+      <c r="C303">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="304" spans="3:3">
+      <c r="C304">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="305" spans="3:3">
+      <c r="C305">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="306" spans="3:3">
+      <c r="C306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="3:3">
+      <c r="C307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="3:3">
+      <c r="C308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="3:3">
+      <c r="C309">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="3:3">
+      <c r="C310">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="3:3">
+      <c r="C311">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="3:3">
+      <c r="C312">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" spans="3:3">
+      <c r="C313">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="3:3">
+      <c r="C314">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="3:3">
+      <c r="C315">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316" spans="3:3">
+      <c r="C316">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="317" spans="3:3">
+      <c r="C317">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="318" spans="3:3">
+      <c r="C318">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="319" spans="3:3">
+      <c r="C319">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="320" spans="3:3">
+      <c r="C320">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="321" spans="3:3">
+      <c r="C321">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="322" spans="3:3">
+      <c r="C322">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="323" spans="3:3">
+      <c r="C323">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="324" spans="3:3">
+      <c r="C324">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="325" spans="3:3">
+      <c r="C325">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="326" spans="3:3">
+      <c r="C326">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="327" spans="3:3">
+      <c r="C327">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="328" spans="3:3">
+      <c r="C328">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="329" spans="3:3">
+      <c r="C329">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="330" spans="3:3">
+      <c r="C330">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="331" spans="3:3">
+      <c r="C331">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="332" spans="3:3">
+      <c r="C332">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="333" spans="3:3">
+      <c r="C333">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="334" spans="3:3">
+      <c r="C334">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="335" spans="3:3">
+      <c r="C335">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="336" spans="3:3">
+      <c r="C336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="3:3">
+      <c r="C337">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="3:3">
+      <c r="C338">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="3:3">
+      <c r="C339">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="3:3">
+      <c r="C340">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="3:3">
+      <c r="C341">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="342" spans="3:3">
+      <c r="C342">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="3:3">
+      <c r="C343">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="3:3">
+      <c r="C344">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345" spans="3:3">
+      <c r="C345">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346" spans="3:3">
+      <c r="C346">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="347" spans="3:3">
+      <c r="C347">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="348" spans="3:3">
+      <c r="C348">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="349" spans="3:3">
+      <c r="C349">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350" spans="3:3">
+      <c r="C350">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="351" spans="3:3">
+      <c r="C351">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="352" spans="3:3">
+      <c r="C352">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="353" spans="3:3">
+      <c r="C353">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="354" spans="3:3">
+      <c r="C354">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="355" spans="3:3">
+      <c r="C355">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="356" spans="3:3">
+      <c r="C356">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="357" spans="3:3">
+      <c r="C357">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="358" spans="3:3">
+      <c r="C358">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="359" spans="3:3">
+      <c r="C359">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="360" spans="3:3">
+      <c r="C360">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="361" spans="3:3">
+      <c r="C361">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="362" spans="3:3">
+      <c r="C362">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="363" spans="3:3">
+      <c r="C363">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="364" spans="3:3">
+      <c r="C364">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="365" spans="3:3">
+      <c r="C365">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="366" spans="3:3">
+      <c r="C366">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="367" spans="3:3">
+      <c r="C367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="3:3">
+      <c r="C368">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="3:3">
+      <c r="C369">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="3:3">
+      <c r="C370">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="371" spans="3:3">
+      <c r="C371">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="372" spans="3:3">
+      <c r="C372">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="373" spans="3:3">
+      <c r="C373">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374" spans="3:3">
+      <c r="C374">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="375" spans="3:3">
+      <c r="C375">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="376" spans="3:3">
+      <c r="C376">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="377" spans="3:3">
+      <c r="C377">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="378" spans="3:3">
+      <c r="C378">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="379" spans="3:3">
+      <c r="C379">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="380" spans="3:3">
+      <c r="C380">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="381" spans="3:3">
+      <c r="C381">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="382" spans="3:3">
+      <c r="C382">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="383" spans="3:3">
+      <c r="C383">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="384" spans="3:3">
+      <c r="C384">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="385" spans="3:3">
+      <c r="C385">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="386" spans="3:3">
+      <c r="C386">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="387" spans="3:3">
+      <c r="C387">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="388" spans="3:3">
+      <c r="C388">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="389" spans="3:3">
+      <c r="C389">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="390" spans="3:3">
+      <c r="C390">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="391" spans="3:3">
+      <c r="C391">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="392" spans="3:3">
+      <c r="C392">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="393" spans="3:3">
+      <c r="C393">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="394" spans="3:3">
+      <c r="C394">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="395" spans="3:3">
+      <c r="C395">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="396" spans="3:3">
+      <c r="C396">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="397" spans="3:3">
+      <c r="C397">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="398" spans="3:3">
+      <c r="C398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="3:3">
+      <c r="C399">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="3:3">
+      <c r="C400">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3">
+      <c r="C401">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3">
+      <c r="C402">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="403" spans="3:3">
+      <c r="C403">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3">
+      <c r="C404">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405" spans="3:3">
+      <c r="C405">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3">
+      <c r="C406">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3">
+      <c r="C407">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="408" spans="3:3">
+      <c r="C408">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="409" spans="3:3">
+      <c r="C409">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="410" spans="3:3">
+      <c r="C410">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="411" spans="3:3">
+      <c r="C411">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="412" spans="3:3">
+      <c r="C412">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="413" spans="3:3">
+      <c r="C413">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="414" spans="3:3">
+      <c r="C414">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="415" spans="3:3">
+      <c r="C415">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="416" spans="3:3">
+      <c r="C416">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="417" spans="3:3">
+      <c r="C417">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="418" spans="3:3">
+      <c r="C418">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="419" spans="3:3">
+      <c r="C419">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="420" spans="3:3">
+      <c r="C420">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="421" spans="3:3">
+      <c r="C421">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="422" spans="3:3">
+      <c r="C422">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="423" spans="3:3">
+      <c r="C423">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="424" spans="3:3">
+      <c r="C424">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="425" spans="3:3">
+      <c r="C425">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="426" spans="3:3">
+      <c r="C426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="3:3">
+      <c r="C427">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="3:3">
+      <c r="C428">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="3:3">
+      <c r="C429">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="3:3">
+      <c r="C430">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" spans="3:3">
+      <c r="C431">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="432" spans="3:3">
+      <c r="C432">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="433" spans="3:3">
+      <c r="C433">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="434" spans="3:3">
+      <c r="C434">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="435" spans="3:3">
+      <c r="C435">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="436" spans="3:3">
+      <c r="C436">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="437" spans="3:3">
+      <c r="C437">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="438" spans="3:3">
+      <c r="C438">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="439" spans="3:3">
+      <c r="C439">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="440" spans="3:3">
+      <c r="C440">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="441" spans="3:3">
+      <c r="C441">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="442" spans="3:3">
+      <c r="C442">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="443" spans="3:3">
+      <c r="C443">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="444" spans="3:3">
+      <c r="C444">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="445" spans="3:3">
+      <c r="C445">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="446" spans="3:3">
+      <c r="C446">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="447" spans="3:3">
+      <c r="C447">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="448" spans="3:3">
+      <c r="C448">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="449" spans="3:3">
+      <c r="C449">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="450" spans="3:3">
+      <c r="C450">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="451" spans="3:3">
+      <c r="C451">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="452" spans="3:3">
+      <c r="C452">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="453" spans="3:3">
+      <c r="C453">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="454" spans="3:3">
+      <c r="C454">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="455" spans="3:3">
+      <c r="C455">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="456" spans="3:3">
+      <c r="C456">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="457" spans="3:3">
+      <c r="C457">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="3:3">
+      <c r="C458">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="3:3">
+      <c r="C459">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="3:3">
+      <c r="C460">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461" spans="3:3">
+      <c r="C461">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462" spans="3:3">
+      <c r="C462">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="463" spans="3:3">
+      <c r="C463">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="464" spans="3:3">
+      <c r="C464">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="465" spans="3:3">
+      <c r="C465">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="466" spans="3:3">
+      <c r="C466">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="467" spans="3:3">
+      <c r="C467">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="468" spans="3:3">
+      <c r="C468">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="469" spans="3:3">
+      <c r="C469">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="470" spans="3:3">
+      <c r="C470">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="471" spans="3:3">
+      <c r="C471">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="472" spans="3:3">
+      <c r="C472">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="473" spans="3:3">
+      <c r="C473">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="474" spans="3:3">
+      <c r="C474">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="475" spans="3:3">
+      <c r="C475">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="476" spans="3:3">
+      <c r="C476">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="477" spans="3:3">
+      <c r="C477">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="478" spans="3:3">
+      <c r="C478">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="479" spans="3:3">
+      <c r="C479">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="480" spans="3:3">
+      <c r="C480">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="481" spans="3:3">
+      <c r="C481">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="482" spans="3:3">
+      <c r="C482">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="483" spans="3:3">
+      <c r="C483">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="484" spans="3:3">
+      <c r="C484">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="485" spans="3:3">
+      <c r="C485">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="486" spans="3:3">
+      <c r="C486">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="487" spans="3:3">
+      <c r="C487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="3:3">
+      <c r="C488">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="489" spans="3:3">
+      <c r="C489">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="3:3">
+      <c r="C490">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="491" spans="3:3">
+      <c r="C491">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="492" spans="3:3">
+      <c r="C492">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="493" spans="3:3">
+      <c r="C493">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="494" spans="3:3">
+      <c r="C494">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="495" spans="3:3">
+      <c r="C495">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="496" spans="3:3">
+      <c r="C496">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="497" spans="3:3">
+      <c r="C497">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="498" spans="3:3">
+      <c r="C498">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="499" spans="3:3">
+      <c r="C499">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="500" spans="3:3">
+      <c r="C500">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="501" spans="3:3">
+      <c r="C501">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="502" spans="3:3">
+      <c r="C502">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="503" spans="3:3">
+      <c r="C503">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="504" spans="3:3">
+      <c r="C504">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="505" spans="3:3">
+      <c r="C505">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="506" spans="3:3">
+      <c r="C506">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="507" spans="3:3">
+      <c r="C507">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="508" spans="3:3">
+      <c r="C508">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="509" spans="3:3">
+      <c r="C509">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="510" spans="3:3">
+      <c r="C510">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="511" spans="3:3">
+      <c r="C511">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="512" spans="3:3">
+      <c r="C512">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="513" spans="3:3">
+      <c r="C513">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="514" spans="3:3">
+      <c r="C514">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="515" spans="3:3">
+      <c r="C515">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="516" spans="3:3">
+      <c r="C516">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="517" spans="3:3">
+      <c r="C517">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="518" spans="3:3">
+      <c r="C518">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="3:3">
+      <c r="C519">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="3:3">
+      <c r="C520">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="521" spans="3:3">
+      <c r="C521">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="522" spans="3:3">
+      <c r="C522">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523" spans="3:3">
+      <c r="C523">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="524" spans="3:3">
+      <c r="C524">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="525" spans="3:3">
+      <c r="C525">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="526" spans="3:3">
+      <c r="C526">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="527" spans="3:3">
+      <c r="C527">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="528" spans="3:3">
+      <c r="C528">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="529" spans="3:3">
+      <c r="C529">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="530" spans="3:3">
+      <c r="C530">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="531" spans="3:3">
+      <c r="C531">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="532" spans="3:3">
+      <c r="C532">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="533" spans="3:3">
+      <c r="C533">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="534" spans="3:3">
+      <c r="C534">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="535" spans="3:3">
+      <c r="C535">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="536" spans="3:3">
+      <c r="C536">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="537" spans="3:3">
+      <c r="C537">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="538" spans="3:3">
+      <c r="C538">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="539" spans="3:3">
+      <c r="C539">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="540" spans="3:3">
+      <c r="C540">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="541" spans="3:3">
+      <c r="C541">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="542" spans="3:3">
+      <c r="C542">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="543" spans="3:3">
+      <c r="C543">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="544" spans="3:3">
+      <c r="C544">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="545" spans="3:3">
+      <c r="C545">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="546" spans="3:3">
+      <c r="C546">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="547" spans="3:3">
+      <c r="C547">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="548" spans="3:3">
+      <c r="C548">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="3:3">
+      <c r="C549">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550" spans="3:3">
+      <c r="C550">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="551" spans="3:3">
+      <c r="C551">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="552" spans="3:3">
+      <c r="C552">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="553" spans="3:3">
+      <c r="C553">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="554" spans="3:3">
+      <c r="C554">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="555" spans="3:3">
+      <c r="C555">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="556" spans="3:3">
+      <c r="C556">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="557" spans="3:3">
+      <c r="C557">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="558" spans="3:3">
+      <c r="C558">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="559" spans="3:3">
+      <c r="C559">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="560" spans="3:3">
+      <c r="C560">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="561" spans="3:3">
+      <c r="C561">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="562" spans="3:3">
+      <c r="C562">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="563" spans="3:3">
+      <c r="C563">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="564" spans="3:3">
+      <c r="C564">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="565" spans="3:3">
+      <c r="C565">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="566" spans="3:3">
+      <c r="C566">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="567" spans="3:3">
+      <c r="C567">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="568" spans="3:3">
+      <c r="C568">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="569" spans="3:3">
+      <c r="C569">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="570" spans="3:3">
+      <c r="C570">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="571" spans="3:3">
+      <c r="C571">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="572" spans="3:3">
+      <c r="C572">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="573" spans="3:3">
+      <c r="C573">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="574" spans="3:3">
+      <c r="C574">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="575" spans="3:3">
+      <c r="C575">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="576" spans="3:3">
+      <c r="C576">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="577" spans="3:3">
+      <c r="C577">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="578" spans="3:3">
+      <c r="C578">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="579" spans="3:3">
+      <c r="C579">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="580" spans="3:3">
+      <c r="C580">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="581" spans="3:3">
+      <c r="C581">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="582" spans="3:3">
+      <c r="C582">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="583" spans="3:3">
+      <c r="C583">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="584" spans="3:3">
+      <c r="C584">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="585" spans="3:3">
+      <c r="C585">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="586" spans="3:3">
+      <c r="C586">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="587" spans="3:3">
+      <c r="C587">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="588" spans="3:3">
+      <c r="C588">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="589" spans="3:3">
+      <c r="C589">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="590" spans="3:3">
+      <c r="C590">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="591" spans="3:3">
+      <c r="C591">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="592" spans="3:3">
+      <c r="C592">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="593" spans="3:3">
+      <c r="C593">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="594" spans="3:3">
+      <c r="C594">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="595" spans="3:3">
+      <c r="C595">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="596" spans="3:3">
+      <c r="C596">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="597" spans="3:3">
+      <c r="C597">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="598" spans="3:3">
+      <c r="C598">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="599" spans="3:3">
+      <c r="C599">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="600" spans="3:3">
+      <c r="C600">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="601" spans="3:3">
+      <c r="C601">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="602" spans="3:3">
+      <c r="C602">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="603" spans="3:3">
+      <c r="C603">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="604" spans="3:3">
+      <c r="C604">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="605" spans="3:3">
+      <c r="C605">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="606" spans="3:3">
+      <c r="C606">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="607" spans="3:3">
+      <c r="C607">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="608" spans="3:3">
+      <c r="C608">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="609" spans="3:3">
+      <c r="C609">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="610" spans="3:3">
+      <c r="C610">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="611" spans="3:3">
+      <c r="C611">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="612" spans="3:3">
+      <c r="C612">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="613" spans="3:3">
+      <c r="C613">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="614" spans="3:3">
+      <c r="C614">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="615" spans="3:3">
+      <c r="C615">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="616" spans="3:3">
+      <c r="C616">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="617" spans="3:3">
+      <c r="C617">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="618" spans="3:3">
+      <c r="C618">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="619" spans="3:3">
+      <c r="C619">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="620" spans="3:3">
+      <c r="C620">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="621" spans="3:3">
+      <c r="C621">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="622" spans="3:3">
+      <c r="C622">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="623" spans="3:3">
+      <c r="C623">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="624" spans="3:3">
+      <c r="C624">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="625" spans="3:3">
+      <c r="C625">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="626" spans="3:3">
+      <c r="C626">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="627" spans="3:3">
+      <c r="C627">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="628" spans="3:3">
+      <c r="C628">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="629" spans="3:3">
+      <c r="C629">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="630" spans="3:3">
+      <c r="C630">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="631" spans="3:3">
+      <c r="C631">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="632" spans="3:3">
+      <c r="C632">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="633" spans="3:3">
+      <c r="C633">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="634" spans="3:3">
+      <c r="C634">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="635" spans="3:3">
+      <c r="C635">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="636" spans="3:3">
+      <c r="C636">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="637" spans="3:3">
+      <c r="C637">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="638" spans="3:3">
+      <c r="C638">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="639" spans="3:3">
+      <c r="C639">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="640" spans="3:3">
+      <c r="C640">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="641" spans="3:3">
+      <c r="C641">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="642" spans="3:3">
+      <c r="C642">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="643" spans="3:3">
+      <c r="C643">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="644" spans="3:3">
+      <c r="C644">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="645" spans="3:3">
+      <c r="C645">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="646" spans="3:3">
+      <c r="C646">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="647" spans="3:3">
+      <c r="C647">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="648" spans="3:3">
+      <c r="C648">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="649" spans="3:3">
+      <c r="C649">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="650" spans="3:3">
+      <c r="C650">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="651" spans="3:3">
+      <c r="C651">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="652" spans="3:3">
+      <c r="C652">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="653" spans="3:3">
+      <c r="C653">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="654" spans="3:3">
+      <c r="C654">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="655" spans="3:3">
+      <c r="C655">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="656" spans="3:3">
+      <c r="C656">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="657" spans="3:3">
+      <c r="C657">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="658" spans="3:3">
+      <c r="C658">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="659" spans="3:3">
+      <c r="C659">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="660" spans="3:3">
+      <c r="C660">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="661" spans="3:3">
+      <c r="C661">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="662" spans="3:3">
+      <c r="C662">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="663" spans="3:3">
+      <c r="C663">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="664" spans="3:3">
+      <c r="C664">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="665" spans="3:3">
+      <c r="C665">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="666" spans="3:3">
+      <c r="C666">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="667" spans="3:3">
+      <c r="C667">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="668" spans="3:3">
+      <c r="C668">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="669" spans="3:3">
+      <c r="C669">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="670" spans="3:3">
+      <c r="C670">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="671" spans="3:3">
+      <c r="C671">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="672" spans="3:3">
+      <c r="C672">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="673" spans="3:3">
+      <c r="C673">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="674" spans="3:3">
+      <c r="C674">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="675" spans="3:3">
+      <c r="C675">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="676" spans="3:3">
+      <c r="C676">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="677" spans="3:3">
+      <c r="C677">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="678" spans="3:3">
+      <c r="C678">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="679" spans="3:3">
+      <c r="C679">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="680" spans="3:3">
+      <c r="C680">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="681" spans="3:3">
+      <c r="C681">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="682" spans="3:3">
+      <c r="C682">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="683" spans="3:3">
+      <c r="C683">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="684" spans="3:3">
+      <c r="C684">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="685" spans="3:3">
+      <c r="C685">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="686" spans="3:3">
+      <c r="C686">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="687" spans="3:3">
+      <c r="C687">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="688" spans="3:3">
+      <c r="C688">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="689" spans="3:3">
+      <c r="C689">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="690" spans="3:3">
+      <c r="C690">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="691" spans="3:3">
+      <c r="C691">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="692" spans="3:3">
+      <c r="C692">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="693" spans="3:3">
+      <c r="C693">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="694" spans="3:3">
+      <c r="C694">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="695" spans="3:3">
+      <c r="C695">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="696" spans="3:3">
+      <c r="C696">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="697" spans="3:3">
+      <c r="C697">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="698" spans="3:3">
+      <c r="C698">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="699" spans="3:3">
+      <c r="C699">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="700" spans="3:3">
+      <c r="C700">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="701" spans="3:3">
+      <c r="C701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="3:3">
+      <c r="C702">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="703" spans="3:3">
+      <c r="C703">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="704" spans="3:3">
+      <c r="C704">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="705" spans="3:3">
+      <c r="C705">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="706" spans="3:3">
+      <c r="C706">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="707" spans="3:3">
+      <c r="C707">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="708" spans="3:3">
+      <c r="C708">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="709" spans="3:3">
+      <c r="C709">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="710" spans="3:3">
+      <c r="C710">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="711" spans="3:3">
+      <c r="C711">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="712" spans="3:3">
+      <c r="C712">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="713" spans="3:3">
+      <c r="C713">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="714" spans="3:3">
+      <c r="C714">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="715" spans="3:3">
+      <c r="C715">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="716" spans="3:3">
+      <c r="C716">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="717" spans="3:3">
+      <c r="C717">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="718" spans="3:3">
+      <c r="C718">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="719" spans="3:3">
+      <c r="C719">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="720" spans="3:3">
+      <c r="C720">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="721" spans="3:3">
+      <c r="C721">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="722" spans="3:3">
+      <c r="C722">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="723" spans="3:3">
+      <c r="C723">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="724" spans="3:3">
+      <c r="C724">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="725" spans="3:3">
+      <c r="C725">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="726" spans="3:3">
+      <c r="C726">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="727" spans="3:3">
+      <c r="C727">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="728" spans="3:3">
+      <c r="C728">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="729" spans="3:3">
+      <c r="C729">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="730" spans="3:3">
+      <c r="C730">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="731" spans="3:3">
+      <c r="C731">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
